--- a/2 - Language (Words)/[7-11] Word Scaling Analysis (distance)/Parameter Tables/Output-Parameters_for_English_Scaling.xlsx
+++ b/2 - Language (Words)/[7-11] Word Scaling Analysis (distance)/Parameter Tables/Output-Parameters_for_English_Scaling.xlsx
@@ -100,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -165,177 +165,221 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>5.8589802718170656</v>
+        <v>1.5685228013090549</v>
       </c>
       <c r="B2" s="0">
-        <v>1.081255915702267</v>
+        <v>0.46337244269654099</v>
       </c>
       <c r="C2" s="0">
-        <v>28.594653878918688</v>
+        <v>-17.62906530728721</v>
       </c>
       <c r="D2" s="0">
-        <v>16.064991065253448</v>
+        <v>5.5477245430987079</v>
       </c>
       <c r="E2" s="0">
-        <v>400.47373640932233</v>
+        <v>458.06222433649594</v>
       </c>
       <c r="F2" s="0">
-        <v>14.391346993631668</v>
+        <v>9.7108016746029424</v>
       </c>
       <c r="G2" s="0">
-        <v>455.77667344821964</v>
+        <v>524.33013901089589</v>
       </c>
       <c r="H2" s="0">
-        <v>35.203627210019768</v>
+        <v>14.32178926258366</v>
       </c>
       <c r="I2" s="0">
-        <v>23.111445647968672</v>
+        <v>7.2139689645923548</v>
       </c>
       <c r="J2" s="0">
-        <v>3.3016350925669533</v>
+        <v>1.0305669949417651</v>
       </c>
       <c r="K2" s="0">
-        <v>0.0063341241441362021</v>
+        <v>0.062753020201732942</v>
       </c>
       <c r="L2" s="0">
-        <v>0.0063341241441362021</v>
+        <v>0.062753020201732942</v>
       </c>
       <c r="M2" s="0">
-        <v>0.47331893831126565</v>
+        <v>0.47343571165143011</v>
       </c>
       <c r="N2" s="0">
-        <v>0.9828311369340168</v>
+        <v>-0.82425605185365147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2.1811333248638989</v>
+        <v>5.8589803187979266</v>
       </c>
       <c r="B3" s="0">
-        <v>0.34681789485309911</v>
+        <v>1.0812559005090951</v>
       </c>
       <c r="C3" s="0">
-        <v>-147.50514335694382</v>
+        <v>28.594654346385333</v>
       </c>
       <c r="D3" s="0">
-        <v>11.788479679649244</v>
+        <v>16.064990993326393</v>
       </c>
       <c r="E3" s="0">
-        <v>550.03540474032184</v>
+        <v>400.47373587859005</v>
       </c>
       <c r="F3" s="0">
-        <v>8.3636566612032333</v>
+        <v>14.391347025881016</v>
       </c>
       <c r="G3" s="0">
-        <v>899.99997566063314</v>
+        <v>455.77667256282808</v>
       </c>
       <c r="H3" s="0">
-        <v>29.133087184646826</v>
+        <v>35.203627092600414</v>
       </c>
       <c r="I3" s="0">
-        <v>21.451374131684201</v>
+        <v>23.111445647968676</v>
       </c>
       <c r="J3" s="0">
-        <v>3.0644820188120288</v>
+        <v>3.3016350925669538</v>
       </c>
       <c r="K3" s="0">
-        <v>0.73136140242884506</v>
+        <v>0.006334124144136523</v>
       </c>
       <c r="L3" s="0">
-        <v>0.73136140242884506</v>
+        <v>0.006334124144136523</v>
       </c>
       <c r="M3" s="0">
-        <v>0.44633811944926161</v>
+        <v>0.47331893831126565</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.96311775210605421</v>
+        <v>0.9828311369340168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2.2978296501779636</v>
+        <v>2.1811332073761154</v>
       </c>
       <c r="B4" s="0">
-        <v>0.72122645918317674</v>
+        <v>0.34681787496532152</v>
       </c>
       <c r="C4" s="0">
-        <v>-127.35444382461321</v>
+        <v>-147.50515258151285</v>
       </c>
       <c r="D4" s="0">
-        <v>17.847533686928529</v>
+        <v>11.7884814059259</v>
       </c>
       <c r="E4" s="0">
-        <v>498.14955795199239</v>
+        <v>550.03540902223392</v>
       </c>
       <c r="F4" s="0">
-        <v>16.180733244097539</v>
+        <v>8.3636545713566228</v>
       </c>
       <c r="G4" s="0">
-        <v>893.84314381421075</v>
+        <v>899.99999376193364</v>
       </c>
       <c r="H4" s="0">
-        <v>47.088514879280538</v>
+        <v>29.133090586182249</v>
       </c>
       <c r="I4" s="0">
-        <v>27.334757501640883</v>
+        <v>21.451374131684009</v>
       </c>
       <c r="J4" s="0">
-        <v>3.9049653573772689</v>
+        <v>3.0644820188120012</v>
       </c>
       <c r="K4" s="0">
-        <v>0.21317767965474302</v>
+        <v>0.73136134485948123</v>
       </c>
       <c r="L4" s="0">
-        <v>0.21317767965474302</v>
+        <v>0.73136134485948123</v>
       </c>
       <c r="M4" s="0">
-        <v>0.21570970411379478</v>
+        <v>0.44633811944926161</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.92541856638560605</v>
+        <v>-0.96311775210605421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.080381639355295603</v>
+        <v>2.2978295669839808</v>
       </c>
       <c r="B5" s="0">
-        <v>0.4936712797733796</v>
+        <v>0.72122654982986811</v>
       </c>
       <c r="C5" s="0">
-        <v>-66.319363378504846</v>
+        <v>-127.35632768370104</v>
       </c>
       <c r="D5" s="0">
-        <v>7.8503067536271249</v>
+        <v>17.847529356279715</v>
       </c>
       <c r="E5" s="0">
-        <v>536.10813113160998</v>
+        <v>498.14955774890973</v>
       </c>
       <c r="F5" s="0">
-        <v>8.5243227552255973</v>
+        <v>16.180734983870085</v>
       </c>
       <c r="G5" s="0">
-        <v>710.89496656971937</v>
+        <v>893.84817688276962</v>
       </c>
       <c r="H5" s="0">
-        <v>17.965765480502895</v>
+        <v>47.088401448404163</v>
       </c>
       <c r="I5" s="0">
-        <v>8.9879537875182915</v>
+        <v>27.334757501640887</v>
       </c>
       <c r="J5" s="0">
-        <v>1.2839933982168987</v>
+        <v>3.9049653573772694</v>
       </c>
       <c r="K5" s="0">
-        <v>0.46703038265466817</v>
+        <v>0.21317767948270977</v>
       </c>
       <c r="L5" s="0">
-        <v>0.46703038265466817</v>
+        <v>0.21317767948270977</v>
       </c>
       <c r="M5" s="0">
+        <v>0.21570970411379478</v>
+      </c>
+      <c r="N5" s="0">
+        <v>-0.92541856638560605</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.080381226890425789</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.49367140547937993</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-66.319347393253793</v>
+      </c>
+      <c r="D6" s="0">
+        <v>7.8503068100209328</v>
+      </c>
+      <c r="E6" s="0">
+        <v>536.10813788482812</v>
+      </c>
+      <c r="F6" s="0">
+        <v>8.5243212240074886</v>
+      </c>
+      <c r="G6" s="0">
+        <v>710.89492901969652</v>
+      </c>
+      <c r="H6" s="0">
+        <v>17.965767264053305</v>
+      </c>
+      <c r="I6" s="0">
+        <v>8.9879537875182383</v>
+      </c>
+      <c r="J6" s="0">
+        <v>1.2839933982168912</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0.4670303826559935</v>
+      </c>
+      <c r="L6" s="0">
+        <v>0.4670303826559935</v>
+      </c>
+      <c r="M6" s="0">
         <v>0.18406497010375428</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N6" s="0">
         <v>-0.94276382114667645</v>
       </c>
     </row>
